--- a/pred_ohlcv/54_21/2019-11-02 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 PIVX ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-13668.24333716</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-8318.671137159999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-8318.671137159999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-9863.635437159999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-7282.591437159999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7667.591437159999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-7907.591437159999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-7128.591537159999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-6299.13403716</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-22075.86283716</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-22155.88253716</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-29065.33923716</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25319.14236284</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>24677.63276284</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>24678.63276284</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>24678.63276284</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>24678.63276284</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>23642.45426284</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>25141.03356284</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>84587.99756284</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>72865.22096284</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>72865.22096284</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>72866.22096284</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>81945.76266284</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>60557.74686284</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>58669.99176284</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>58669.99176284</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>47326.14046284</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>40474.44836284</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>50049.79546283999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>39718.00496283999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>39721.98446283999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>34229.10876283998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>35779.26566283999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>33625.06806283999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 PIVX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-15542.20873716</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7029.94013716</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-7029.94013716</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-9467.82123716</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-13989.13063716</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-13668.24333716</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-8318.671137159999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7667.591437159999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2936.68473716</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-5175.163737159999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5099.163737159999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5264.657437159999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4018.430537159999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2605.76526284</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>18325.45126284</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25319.14236284</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>24677.63276284</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>24678.63276284</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>24678.63276284</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>24678.63276284</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>23642.45426284</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>25141.03356284</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>85109.60996284</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>84587.99756284</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>72865.22096284</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>72865.22096284</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>72866.22096284</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>81945.76266284</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>60557.74686284</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>58669.99176284</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>58669.99176284</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>39718.00496283999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>39721.98446283999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>34229.10876283998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>35779.26566283999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>33625.06806283999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
